--- a/data-viz/inputs/color_range.xlsx
+++ b/data-viz/inputs/color_range.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="81" documentId="11_40D7765C0EA1D5E587C792B055D897E2A0229278" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B758C93-3098-430C-BF61-09BBE7C2E90F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2059,17 +2059,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>57</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>63</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>66</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>69</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>72</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>72</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>75</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>75</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>75</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>75</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>75</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>78</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>54</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>57</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>66</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>69</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>75</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>78</v>
       </c>
@@ -4844,6 +4844,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -5092,17 +5103,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF23DE6B-CBEA-4828-A095-699FB63A72C8}">
   <ds:schemaRefs>
@@ -5112,6 +5112,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D262FE07-B4A6-486E-924D-E03F14203956}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B626F381-065C-468E-BC49-5CD06E66DC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5128,15 +5145,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D262FE07-B4A6-486E-924D-E03F14203956}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>